--- a/BankOfAmerica/src/test/resources/BankAmericaSecurity.xlsx
+++ b/BankOfAmerica/src/test/resources/BankAmericaSecurity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahcenesaidi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahcenesaidi/SeleniumBootcamp_Team4/BankOfAmerica/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E91A3AB-E0D7-D346-97F3-FF206D72E910}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DA67F7-5EF9-0A42-9F11-3D857F26ED9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1340" yWindow="600" windowWidth="28040" windowHeight="17440" xr2:uid="{0751A2CC-6ADA-8B41-BEF9-B1AF8A624473}"/>
   </bookViews>
@@ -34,21 +34,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>See how to spot fraud</t>
-  </si>
-  <si>
-    <t>Warning signs of identity theft</t>
-  </si>
-  <si>
-    <t>Red flags of common scams</t>
-  </si>
-  <si>
-    <t>See how to protect your personal accounts</t>
-  </si>
-  <si>
-    <t>See how to protect your business accounts</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>Checking</t>
+  </si>
+  <si>
+    <t>Credit Cards</t>
+  </si>
+  <si>
+    <t>Enrol</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>Contact Us</t>
   </si>
 </sst>
 </file>
@@ -411,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156639CF-92EB-F540-9C6A-6F1D1345ADD7}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -444,14 +447,12 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://www.bankofamerica.com/security-center/bank-fraud-prevention/" xr:uid="{E632D895-94A3-7648-AF9F-18AA5C5170C3}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://www.bankofamerica.com/security-center/identity-theft-protection/" xr:uid="{AEC00579-5D1A-D34D-A224-9B28FEE5D0B3}"/>
-    <hyperlink ref="A3" r:id="rId3" display="https://www.bankofamerica.com/security-center/avoid-bank-scams/" xr:uid="{B56015C3-B0A5-2D4B-AA02-F1CEE3085B46}"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://www.bankofamerica.com/security-center/fraud-prevention-checklist/" xr:uid="{E6AFAA5B-B4EE-2544-8846-30A93CBAFFD6}"/>
-    <hyperlink ref="A5" r:id="rId5" display="https://www.bankofamerica.com/security-center/small-business-fraud-prevention/" xr:uid="{26358182-9AB3-D64F-BA57-E5E78FA821F1}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>